--- a/イメージ図.xlsx
+++ b/イメージ図.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\Angular\workspace\tab\tab3-1-ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA6B62D-D4C3-4936-B26E-54F9DB7F11E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8035F9F-CA17-44D3-9B50-CD41411E9F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3770,7 +3771,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
